--- a/Testdata/Templates/UtilityOutcome/QOL_ECON_Staging/OldImportLogic/ECON_OldImportExpectedResult.xlsx
+++ b/Testdata/Templates/UtilityOutcome/QOL_ECON_Staging/OldImportLogic/ECON_OldImportExpectedResult.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Templates\UtilityOutcome\QOL_ECON_Staging\OldImportLogic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DC5EC6-A925-4309-B7BD-C75F44464010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2811656-60DA-4168-A657-7CB86FF421A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>Disutility point estimates reported with health states</t>
   </si>
   <si>
-    <t>Article Identifier(s)</t>
-  </si>
-  <si>
     <t>Year / Country</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>- State-specific utility estimates were derived from patient level EQ-5D (EuroQol Group, Rotterdam, The Netherlands) data from the VISTA trial using U.S.-specific weights.</t>
+  </si>
+  <si>
+    <t>Study Identifier</t>
   </si>
 </sst>
 </file>
@@ -618,7 +618,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -640,7 +640,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>12</v>
@@ -696,31 +696,31 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" t="s">
         <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -734,31 +734,31 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" t="s">
         <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -772,31 +772,31 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" t="s">
         <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -810,31 +810,31 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" t="s">
         <v>36</v>
-      </c>
-      <c r="L5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -848,31 +848,31 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>40</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" t="s">
         <v>42</v>
-      </c>
-      <c r="L6" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -887,6 +887,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
@@ -898,15 +907,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1121,6 +1121,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1133,14 +1141,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Testdata/Templates/UtilityOutcome/QOL_ECON_Staging/OldImportLogic/ECON_OldImportExpectedResult.xlsx
+++ b/Testdata/Templates/UtilityOutcome/QOL_ECON_Staging/OldImportLogic/ECON_OldImportExpectedResult.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Templates\UtilityOutcome\QOL_ECON_Staging\OldImportLogic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2811656-60DA-4168-A657-7CB86FF421A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B92108D-7299-4482-8E54-518652C5DE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpectedReportData" sheetId="2" r:id="rId1"/>
@@ -53,13 +53,7 @@
     <t>Population</t>
   </si>
   <si>
-    <t>Sub-population</t>
-  </si>
-  <si>
     <t>Inclusion Criteria</t>
-  </si>
-  <si>
-    <t>Line of Therapy</t>
   </si>
   <si>
     <t>Original</t>
@@ -176,6 +170,12 @@
   </si>
   <si>
     <t>Study Identifier</t>
+  </si>
+  <si>
+    <t>Population filter 1</t>
+  </si>
+  <si>
+    <t>Population filter 2</t>
   </si>
 </sst>
 </file>
@@ -360,8 +360,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="19">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -618,7 +617,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -639,50 +638,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -693,34 +692,34 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -731,34 +730,34 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="L3" t="s">
         <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -769,34 +768,34 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>29</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -807,34 +806,34 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" t="s">
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>34</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -845,34 +844,34 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s">
         <v>39</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
         <v>40</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -887,29 +886,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
-      <UserInfo>
-        <DisplayName>Brent Rine</DisplayName>
-        <AccountId>23</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BBCC0D8A7D6FE0469D1BA865BCA834CE" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b34b9c2d2d2ae622ceb9becde627447d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c267871d-e92d-4bec-a268-edb541a91654" xmlns:ns3="4654e9f1-a236-4d55-b6c2-932c37e5d109" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="754865f092840b442e748268bc313caa" ns2:_="" ns3:_="">
     <xsd:import namespace="c267871d-e92d-4bec-a268-edb541a91654"/>
@@ -1120,10 +1096,44 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
+      <UserInfo>
+        <DisplayName>Brent Rine</DisplayName>
+        <AccountId>23</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE9E4E5-BB7D-4CF3-8EE0-EAFAD5786BE1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c267871d-e92d-4bec-a268-edb541a91654"/>
+    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1146,20 +1156,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE9E4E5-BB7D-4CF3-8EE0-EAFAD5786BE1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c267871d-e92d-4bec-a268-edb541a91654"/>
-    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Testdata/Templates/UtilityOutcome/QOL_ECON_Staging/OldImportLogic/ECON_OldImportExpectedResult.xlsx
+++ b/Testdata/Templates/UtilityOutcome/QOL_ECON_Staging/OldImportLogic/ECON_OldImportExpectedResult.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Templates\UtilityOutcome\QOL_ECON_Staging\OldImportLogic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B92108D-7299-4482-8E54-518652C5DE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33193555-81FB-4511-808F-7C4F74A8C8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
   <si>
     <t>Publication Identifier</t>
   </si>
@@ -77,98 +77,6 @@
     <t>Other Utility Data (Excluding point estimates)</t>
   </si>
   <si>
-    <t>1 Line</t>
-  </si>
-  <si>
-    <t>Olry_BMT_2019</t>
-  </si>
-  <si>
-    <t>Cost-effectiveness of lenalidomide maintenance in patients with multiple myeloma who have undergone autologous transplant of hematopoietic progenitor cells</t>
-  </si>
-  <si>
-    <t>NDMM with maintenance, post-SCT</t>
-  </si>
-  <si>
-    <t>SCT-eligible</t>
-  </si>
-  <si>
-    <t>2017 / Spain</t>
-  </si>
-  <si>
-    <t>- Utility values from Williams et al, 2017
-- Progression free: 0.833 (95%CI: 0.783–0.883)
-- 1st relapse: 0.679 (95%CI 0.616–0.743)
-- 2nd relapse:  0.474 (95%CI 0.398–0.551)
-- Death: 0</t>
-  </si>
-  <si>
-    <t>Marchetti_MJHID_2021</t>
-  </si>
-  <si>
-    <t>Cost-Effectiveness of Post-Autotransplant Lenalidomide in Persons with Multiple Myeloma</t>
-  </si>
-  <si>
-    <t>2018 / Multinational</t>
-  </si>
-  <si>
-    <t>- Progression-free utility values from Proskorovsky et al, 2014;  Treatment disutility value from Acaster et al, 2013.
-- Progression-free: 0.83
-- Progression-free 2nd line: 0.68
-- Progression-free 3rd line: 0.47
-- Treatment disutility: -0.07</t>
-  </si>
-  <si>
-    <t>Gulbrandsen_EJH_2001</t>
-  </si>
-  <si>
-    <t>Cost-utility analysis of high-dose melphalan with autologous blood stem cell support vs melphalan plus prednisone in patients younger than 60 years with multiple myeloma</t>
-  </si>
-  <si>
-    <t>&lt;60 years, Patients randomized to melphalan–prednisone treatment.</t>
-  </si>
-  <si>
-    <t>2000 / Multinational (Denmark, Norway, Sweden)</t>
-  </si>
-  <si>
-    <t>- High Dose Melphalan patients: 0.7896 (v2)
-- Control patients at 6 months: 0.7334 (v1)
-- High Dose Melphalan group, based on the QLQ-C30 scores, fits with a utility of 0.81 in the 15-D instrument.</t>
-  </si>
-  <si>
-    <t>Gaultney_Pharmacogenomics_2018</t>
-  </si>
-  <si>
-    <t>Potential therapeutic and economic value of risk-stratified treatment as initial treatment of multiple myeloma in Europe</t>
-  </si>
-  <si>
-    <t>18–65 years old, Durie–Salmon stage II–III, WHO performance status 0–2, or WHO 3 when caused by MM.</t>
-  </si>
-  <si>
-    <t>2017 / Multinational (UK, Netherlands, Germany, Spain and France)</t>
-  </si>
-  <si>
-    <t>- Progression-free: 0.81
-- Progression: 0.65</t>
-  </si>
-  <si>
-    <t>Garrison_Oncologist_2013</t>
-  </si>
-  <si>
-    <t>The cost-effectiveness of initial treatment of multiple myeloma in the US with bortezomib plus melphalan and prednisone versus thalidomide plus melphalan and prednisone or lenalidomide plus melphalan and prednisone with continuous lenalidomide maintenance treatment</t>
-  </si>
-  <si>
-    <t>NDMM with maintenance</t>
-  </si>
-  <si>
-    <t>SCT-ineligible</t>
-  </si>
-  <si>
-    <t>2010 / USA</t>
-  </si>
-  <si>
-    <t>- State-specific utility estimates were derived from patient level EQ-5D (EuroQol Group, Rotterdam, The Netherlands) data from the VISTA trial using U.S.-specific weights.</t>
-  </si>
-  <si>
     <t>Study Identifier</t>
   </si>
   <si>
@@ -176,6 +84,241 @@
   </si>
   <si>
     <t>Population filter 2</t>
+  </si>
+  <si>
+    <t>12, 13</t>
+  </si>
+  <si>
+    <t>Bertranou_2017</t>
+  </si>
+  <si>
+    <t>Horgan_2010</t>
+  </si>
+  <si>
+    <t>Wu_2018</t>
+  </si>
+  <si>
+    <t>Rui_2020</t>
+  </si>
+  <si>
+    <t>Guan_2019</t>
+  </si>
+  <si>
+    <t>TA416, TA653: Osimertinib for treating EGFR T790M mutation-positive advanced non-small-cell lung cancer</t>
+  </si>
+  <si>
+    <t>NICE_TA584</t>
+  </si>
+  <si>
+    <t>SMC_1214/17</t>
+  </si>
+  <si>
+    <t>pCODR 2020</t>
+  </si>
+  <si>
+    <t>PBAC_2019</t>
+  </si>
+  <si>
+    <t>Cost-effectiveness of osimertinib in the UK for advanced EGFR-T790M non-small cell lung cancer</t>
+  </si>
+  <si>
+    <t>An economic analysis of the INTEREST trial, a randomized trial of docetaxel versus gefitinib as second-/third-line therapy in advanced non-small-cell lung cancer</t>
+  </si>
+  <si>
+    <t>Cost-Effectiveness of Osimertinib for EGFR Mutation–Positive Non–Small Cell Lung Cancer after Progression following First-Line EGFR TKI Therapy</t>
+  </si>
+  <si>
+    <t>Cost-effectiveness of Osimertinib vs Docetaxel-bevacizumab in Third-line Treatment in EGFR T790M Resistance Mutation Advanced Non-Small Cell Lung Cancer in China</t>
+  </si>
+  <si>
+    <t>Cost-effectiveness of Osimertinib as a Second-line Treatment in Patients With EGFR-mutated Advanced Non-Small Cell Lung Cancer in China</t>
+  </si>
+  <si>
+    <t>TA584: Atezolizumab in combination for treating metastatic non-squamous non-small-cell lung cancer</t>
+  </si>
+  <si>
+    <t>Osimertinib 40mg and 80mg film-coated tablets (Tagrisso®)</t>
+  </si>
+  <si>
+    <t>Tecentriq &amp; Avastin Non-Squamous Non-Small Cell Lung Cancer</t>
+  </si>
+  <si>
+    <t>Atezolizumab and Bevacizumab: atezolizumab: Solution concentrate for I.V. infusion 1200 mg in 20 mL; bevacizumab: Solution for I.V. infusion 100 mg in 4 mL, Solution for I.V. infusion 400 mg in 16 mL; Tecentriq® and Avastin®</t>
+  </si>
+  <si>
+    <t>1) Tseng et al. 2014
+2) NEJ002 (Miyauchi et al. 2015)
+3) Park et al. 2015
+4) Halmos et al. 2015 (RCT)
+5) Zhou et al. 2014
+6) Kashara et al. 2015 (RCT)
+7) IMPRESS (Soria et al. 2015; RCT)
+8) Wu et al. 2010
+9) Kim et al. 2013
+10) AURA 2/AURA extension (single-arm)</t>
+  </si>
+  <si>
+    <t>IMpower150 (NCT02366143)
+Ongoing at time of submission</t>
+  </si>
+  <si>
+    <t>IMpower150 (NCT02366143)</t>
+  </si>
+  <si>
+    <t>Patients with EGFR-T790M mutation positive NSCLC who have progressed on or after EGFR-TKI therapy.</t>
+  </si>
+  <si>
+    <t>Patients with locally advanced or metastatic NSCLC that had progressed/recurred following one to two prior chemotherapy regimens including platinum</t>
+  </si>
+  <si>
+    <t>Patients with EGFR T790M-positive advanced NSCLC after the failure of first-line therapy with first-generation EGFR TKIs</t>
+  </si>
+  <si>
+    <t>Advanced NSCLC with acquired EGFR T790M resistance mutation previously treated with gefitinib or erlotinib in first-line and platinum-based chemotherapy in second-line</t>
+  </si>
+  <si>
+    <t>Advanced, EGFR mutation-positive NSCLC after failure of EGFR TKI</t>
+  </si>
+  <si>
+    <t>Treating epidermal growth factor receptor (EGFR) T790M mutation-positive locally advanced or metastatic non-small-cell lung cancer (NSCLC)</t>
+  </si>
+  <si>
+    <t>Metastatic non-squamous non-small-cell lung cancer</t>
+  </si>
+  <si>
+    <t>Treatment of adult patients with locally advanced or metastatic epidermal growth factor receptor (EGFR) T790M mutation-positive non-small-cell lung cancer (NSCLC).</t>
+  </si>
+  <si>
+    <t>Metastatic EGFR and/or ALK-positive NSCLC in patients who have progressed on treatment with targeted therapies.</t>
+  </si>
+  <si>
+    <t>Locally advanced or metastatic EGFR/ALK NSCLC patients, who have disease progression on or after treatment with an EGFR/ALK TKI</t>
+  </si>
+  <si>
+    <t>EGFRm ITT</t>
+  </si>
+  <si>
+    <t>EGFRm subgroup</t>
+  </si>
+  <si>
+    <t>EGFRm (mixed)</t>
+  </si>
+  <si>
+    <t>Patients with advanced NSCLC, a mean age of 65 years, and a World Health Organization (WHO) performance status of 0-2.</t>
+  </si>
+  <si>
+    <t>2+ Line</t>
+  </si>
+  <si>
+    <t>2015 / UK</t>
+  </si>
+  <si>
+    <t>2008 / Canada</t>
+  </si>
+  <si>
+    <t>2017 / China, USA</t>
+  </si>
+  <si>
+    <t>2019 / China</t>
+  </si>
+  <si>
+    <t>2018 / China</t>
+  </si>
+  <si>
+    <t>2016 / UK</t>
+  </si>
+  <si>
+    <t>2019 / UK</t>
+  </si>
+  <si>
+    <t>2017 / UK</t>
+  </si>
+  <si>
+    <t>2020 / Canada</t>
+  </si>
+  <si>
+    <t>2019 / Australia</t>
+  </si>
+  <si>
+    <t>Progression-free
+Progressed disease
+Death</t>
+  </si>
+  <si>
+    <t>Stable disease
+Responsive disease
+Progressive disease</t>
+  </si>
+  <si>
+    <t>Progression-free
+Progressed-survival
+Death</t>
+  </si>
+  <si>
+    <t>Progression-free survival
+Postprogression survival
+Death</t>
+  </si>
+  <si>
+    <t>Progression-free
+Progression
+Death</t>
+  </si>
+  <si>
+    <t>TA416:
+Base case
+Progression-free: 0.815
+Post-progression: 0.678
+Second-line only population (subgroup)
+Progression-free: 0.853
+Post-progression: 0.726
+≥Third-line population (subgroup)
+Progression-free: 0.798
+Post-progression: 0.659
+Updated base case (osimertinib)
+Progression-free: 0.806 (adjusted dataset)
+Progression-free: 0.805 (unadjusted dataset)
+Progressed disease: 0.715
+Updated base case (PDC)
+Progression-free: 0.779 (adjusted dataset)
+Progression-free: 0.783 (unadjusted dataset)
+Progressed disease: 0.715
+TA653:
+Model A
+PF: 0.831
+Stable disease: 0.751
+PD: 0.715
+Model B
+PF: 0.836
+Stable disease: 0.797
+PD: 0.717
+Post-technical engagement, the company updated their base case and used the following utility values:
+Osimertinib
+Response: 0.831
+Stable disease: 0.751
+Progressed disease: 0.715
+PDC
+Response: 0.67
+Stable disease: 0.67
+Progressed disease: 0.64</t>
+  </si>
+  <si>
+    <t>≤ 5 weeks before death: 0.52
+&gt; 5 and ≤ 15 weeks before death:  0.59
+&gt; 15 and ≤ 30 weeks before death: 0.70 
+&gt; 30 weeks before death: 0.73</t>
+  </si>
+  <si>
+    <t>Base case:
+Progression free state: 0.831
+Stable disease: 0.751
+Progressed disease: 0.715</t>
+  </si>
+  <si>
+    <t>Health state utility values in the model were based on a patient’s proximity to death, with changes in patient utility occurring independently of progression, as of 30 weeks from death.</t>
+  </si>
+  <si>
+    <t>Increment LYG: 0.785                                                         Increment QALYS: 0.565</t>
   </si>
 </sst>
 </file>
@@ -613,11 +756,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9C3608-0A92-4859-BFFD-64E3BA37D68F}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -639,7 +782,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -660,13 +803,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>12</v>
@@ -686,130 +829,130 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
@@ -818,60 +961,250 @@
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
       <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
         <v>38</v>
       </c>
-      <c r="I6" t="s">
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s">
         <v>8</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>14</v>
       </c>
-      <c r="K6" t="s">
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="L6" t="s">
-        <v>40</v>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -886,6 +1219,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
+      <UserInfo>
+        <DisplayName>Brent Rine</DisplayName>
+        <AccountId>23</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BBCC0D8A7D6FE0469D1BA865BCA834CE" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b34b9c2d2d2ae622ceb9becde627447d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c267871d-e92d-4bec-a268-edb541a91654" xmlns:ns3="4654e9f1-a236-4d55-b6c2-932c37e5d109" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="754865f092840b442e748268bc313caa" ns2:_="" ns3:_="">
     <xsd:import namespace="c267871d-e92d-4bec-a268-edb541a91654"/>
@@ -1096,20 +1443,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
-      <UserInfo>
-        <DisplayName>Brent Rine</DisplayName>
-        <AccountId>23</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1120,6 +1453,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c267871d-e92d-4bec-a268-edb541a91654"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE9E4E5-BB7D-4CF3-8EE0-EAFAD5786BE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1138,23 +1488,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c267871d-e92d-4bec-a268-edb541a91654"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
   <ds:schemaRefs>
